--- a/Лор/KM.xlsx
+++ b/Лор/KM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="173">
   <si>
     <t>HP</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Ветер</t>
   </si>
   <si>
-    <t>6/8</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -210,18 +207,6 @@
     <t>10&lt;&lt;30%</t>
   </si>
   <si>
-    <t>40%/60%</t>
-  </si>
-  <si>
-    <t>52%/72%</t>
-  </si>
-  <si>
-    <t>90/110</t>
-  </si>
-  <si>
-    <t>60/80</t>
-  </si>
-  <si>
     <t>30&lt;&lt;50</t>
   </si>
   <si>
@@ -279,27 +264,9 @@
     <t>500</t>
   </si>
   <si>
-    <t>420/480k</t>
-  </si>
-  <si>
-    <t>115/122k</t>
-  </si>
-  <si>
-    <t>100/126k</t>
-  </si>
-  <si>
-    <t>211/233k</t>
-  </si>
-  <si>
-    <t>196/219k</t>
-  </si>
-  <si>
     <t>114/123k</t>
   </si>
   <si>
-    <t>116/111k</t>
-  </si>
-  <si>
     <t>240/220k</t>
   </si>
   <si>
@@ -418,6 +385,156 @@
   </si>
   <si>
     <t>Дракон - Иммунитет и бафы: Магия, яды, истинное видение (двойная цена)</t>
+  </si>
+  <si>
+    <t>Фрин 100 lvl</t>
+  </si>
+  <si>
+    <t>Уроборос  100 lvl</t>
+  </si>
+  <si>
+    <t>Фрин 200 lvl</t>
+  </si>
+  <si>
+    <t>Уроборос 200 lvl</t>
+  </si>
+  <si>
+    <t>220k</t>
+  </si>
+  <si>
+    <t>214k</t>
+  </si>
+  <si>
+    <t>168k</t>
+  </si>
+  <si>
+    <t>190k</t>
+  </si>
+  <si>
+    <t>101k</t>
+  </si>
+  <si>
+    <t>123k</t>
+  </si>
+  <si>
+    <t>219k</t>
+  </si>
+  <si>
+    <t>233k</t>
+  </si>
+  <si>
+    <t>111k</t>
+  </si>
+  <si>
+    <t>126k</t>
+  </si>
+  <si>
+    <t>122k</t>
+  </si>
+  <si>
+    <t>480k</t>
+  </si>
+  <si>
+    <t>800kk</t>
+  </si>
+  <si>
+    <t>1200kk</t>
+  </si>
+  <si>
+    <t>1060kk</t>
+  </si>
+  <si>
+    <t>1115k</t>
+  </si>
+  <si>
+    <t>2500kk</t>
+  </si>
+  <si>
+    <t>300kk</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>850kk</t>
+  </si>
+  <si>
+    <t>750kk</t>
+  </si>
+  <si>
+    <t>1000kk</t>
+  </si>
+  <si>
+    <t>7000kk</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>Модификаторы</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>+20</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>+20%</t>
+  </si>
+  <si>
+    <t>666666k</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -465,7 +582,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -781,11 +898,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -816,9 +1056,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -853,6 +1090,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -871,13 +1175,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -892,34 +1205,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1223,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,9 +1557,18 @@
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="20" max="23" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1268,250 +1594,486 @@
         <v>18</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="J2" s="36"/>
+      <c r="K2" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="R2" s="37"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="R3" s="37"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="J4" s="36"/>
+      <c r="K4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="R4" s="37"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="N5" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="R5" s="37"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="R6" s="37"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="R7" s="37"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="11">
         <v>60</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M8" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="N8" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>110</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="N9" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>75</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J10" s="36"/>
+      <c r="K10" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="N10" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="O10" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>600</v>
+      </c>
+      <c r="R10" s="37"/>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1536,9 +2098,33 @@
       <c r="H11" s="12">
         <v>7.4</v>
       </c>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J11" s="39"/>
+      <c r="K11" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="34">
+        <v>10</v>
+      </c>
+      <c r="M11" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="P11" s="34">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="34">
+        <v>6</v>
+      </c>
+      <c r="R11" s="41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1563,9 +2149,17 @@
       <c r="H12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="69"/>
+    </row>
+    <row r="13" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1590,327 +2184,389 @@
       <c r="H13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="69"/>
+    </row>
+    <row r="14" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="69"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="17">
+        <v>140</v>
+      </c>
+      <c r="C15" s="17">
+        <v>140</v>
+      </c>
+      <c r="D15" s="17">
+        <v>140</v>
+      </c>
+      <c r="E15" s="17">
+        <v>140</v>
+      </c>
+      <c r="F15" s="17">
+        <v>140</v>
+      </c>
+      <c r="G15" s="17">
+        <v>140</v>
+      </c>
+      <c r="H15" s="21">
+        <v>140</v>
+      </c>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="69"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="17">
+        <v>6</v>
+      </c>
+      <c r="C16" s="17">
+        <v>6</v>
+      </c>
+      <c r="D16" s="17">
+        <v>6</v>
+      </c>
+      <c r="E16" s="17">
+        <v>2</v>
+      </c>
+      <c r="F16" s="17">
+        <v>2</v>
+      </c>
+      <c r="G16" s="17">
+        <v>2</v>
+      </c>
+      <c r="H16" s="21">
+        <v>2</v>
+      </c>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="69"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="21">
+        <v>2</v>
+      </c>
+      <c r="J17" s="69"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="69"/>
+    </row>
+    <row r="18" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="23">
+        <v>5</v>
+      </c>
+      <c r="C18" s="23">
+        <v>5</v>
+      </c>
+      <c r="D18" s="23">
+        <v>5</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
+      <c r="H18" s="24">
+        <v>0</v>
+      </c>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="69"/>
+    </row>
+    <row r="19" spans="1:18" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+    </row>
+    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="H20" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="H21" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="D22" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="18">
-        <v>140</v>
-      </c>
-      <c r="C15" s="18">
-        <v>140</v>
-      </c>
-      <c r="D15" s="18">
-        <v>140</v>
-      </c>
-      <c r="E15" s="18">
-        <v>140</v>
-      </c>
-      <c r="F15" s="18">
-        <v>140</v>
-      </c>
-      <c r="G15" s="18">
-        <v>140</v>
-      </c>
-      <c r="H15" s="22">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="18">
-        <v>6</v>
-      </c>
-      <c r="C16" s="18">
-        <v>6</v>
-      </c>
-      <c r="D16" s="18">
-        <v>6</v>
-      </c>
-      <c r="E16" s="18">
-        <v>2</v>
-      </c>
-      <c r="F16" s="18">
-        <v>2</v>
-      </c>
-      <c r="G16" s="18">
-        <v>2</v>
-      </c>
-      <c r="H16" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="18">
-        <v>3</v>
-      </c>
-      <c r="C17" s="18">
-        <v>3</v>
-      </c>
-      <c r="D17" s="18">
-        <v>3</v>
-      </c>
-      <c r="E17" s="18">
-        <v>2</v>
-      </c>
-      <c r="F17" s="18">
-        <v>2</v>
-      </c>
-      <c r="G17" s="18">
-        <v>2</v>
-      </c>
-      <c r="H17" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="C23" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="24">
-        <v>5</v>
-      </c>
-      <c r="C18" s="24">
-        <v>5</v>
-      </c>
-      <c r="D18" s="24">
-        <v>5</v>
-      </c>
-      <c r="E18" s="24">
-        <v>0</v>
-      </c>
-      <c r="F18" s="24">
-        <v>0</v>
-      </c>
-      <c r="G18" s="24">
-        <v>0</v>
-      </c>
-      <c r="H18" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-      <c r="H20" s="26" t="s">
+      <c r="C24" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="29" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="H21" s="51" t="s">
+      <c r="C25" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="29" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="36" t="s">
+      <c r="C26" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="B27" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50" t="s">
         <v>121</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J30" s="15"/>
-    </row>
-    <row r="31" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
-        <v>132</v>
       </c>
       <c r="B31" s="50"/>
       <c r="C31" s="50"/>
       <c r="D31" s="50"/>
       <c r="E31" s="50"/>
       <c r="F31" s="50"/>
-      <c r="J31" s="15"/>
-    </row>
-    <row r="32" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
@@ -1918,8 +2574,54 @@
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
     </row>
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="80"/>
+      <c r="B33" s="50"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="80"/>
+      <c r="B34" s="50"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="80"/>
+      <c r="B35" s="50"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="80"/>
+      <c r="B36" s="50"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="80"/>
+      <c r="B37" s="50"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="80"/>
+      <c r="B38" s="50"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="79"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="79"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="79"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="79"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="79"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="79"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A39:A44"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A20:F20"/>
